--- a/media/IDFC_HL/MIS/IDFC_HL_MIS.xlsx
+++ b/media/IDFC_HL/MIS/IDFC_HL_MIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BKT10</t>
+          <t>BKT0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -602,49 +602,67 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16367313.16</v>
+        <v>817120112.4299999</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>202</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>16367313.16</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>61842820.34</v>
+      </c>
+      <c r="N2" t="n">
+        <v>752412783.87</v>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>2864508.22</v>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>100</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>7.57</v>
+      </c>
+      <c r="V2" t="n">
+        <v>92.08</v>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>0.35</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>8915728</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>92.43000000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BKT11</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -653,190 +671,190 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1059257.83</v>
+        <v>288503013.31</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>125</v>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>44</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>1059257.83</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>39913237.29</v>
+      </c>
+      <c r="N3" t="n">
+        <v>194592171.52</v>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>50315521.08</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>3682083.42</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>100</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
+        <v>13.83</v>
+      </c>
+      <c r="V3" t="n">
+        <v>67.45</v>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17.44</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>5234507</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BKT12</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DELHI NCR</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>125903092.65</v>
+        <v>9911622.050000001</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>123919848.99</v>
+        <v>9911622.050000001</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1983243.66</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>98.42</v>
+        <v>100</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>1.58</v>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.58</v>
-      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BKT7</t>
+          <t>BKT2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DELHI NCR</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2119620.95</v>
+        <v>1921240</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>1579998.66</v>
+        <v>1921240</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>539622.29</v>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>74.54000000000001</v>
+        <v>100</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>25.46</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>25.46</v>
-      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BKT9</t>
+          <t>BKT3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DELHI NCR</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7207734.13</v>
+        <v>1765526.64</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -846,7 +864,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>7207734.13</v>
+        <v>1765526.64</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -869,6 +887,159 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BKT4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RAJASTHAN</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>489693</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>489693</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>100</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BKT5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RAJASTHAN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2298733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>2298733</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>100</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BKT7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RAJASTHAN</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1180938.14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1180938.14</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>100</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
